--- a/ontology/SGV/dsp/Properties.xlsx
+++ b/ontology/SGV/dsp/Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienraemy/Documents/GitHub/pia-data-model/ontology/SGV/dsp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A622094-FABC-2444-AECA-C28AD89336E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F500794C-9B16-9148-AE54-C277269541D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
+    <workbookView xWindow="720" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="426">
   <si>
     <t>super</t>
   </si>
@@ -1305,6 +1305,9 @@
   </si>
   <si>
     <t>isRepresentationOf</t>
+  </si>
+  <si>
+    <t>Luogo di conservazione</t>
   </si>
 </sst>
 </file>
@@ -1711,8 +1714,8 @@
   <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2551,6 +2554,9 @@
       <c r="F32" s="3" t="s">
         <v>408</v>
       </c>
+      <c r="G32" s="3" t="s">
+        <v>425</v>
+      </c>
       <c r="H32" s="3" t="s">
         <v>72</v>
       </c>

--- a/ontology/SGV/dsp/Properties.xlsx
+++ b/ontology/SGV/dsp/Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienraemy/Documents/GitHub/pia-data-model/ontology/SGV/dsp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F500794C-9B16-9148-AE54-C277269541D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997EF8B9-8954-F843-8728-10AB2DBE7838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="423">
   <si>
     <t>super</t>
   </si>
@@ -72,9 +72,6 @@
     <t>hasTitle</t>
   </si>
   <si>
-    <t>hasGeography</t>
-  </si>
-  <si>
     <t>Signatur</t>
   </si>
   <si>
@@ -115,12 +112,6 @@
   </si>
   <si>
     <t>Place</t>
-  </si>
-  <si>
-    <t>GeonameValue</t>
-  </si>
-  <si>
-    <t>Geonames</t>
   </si>
   <si>
     <t>DateValue</t>
@@ -1711,11 +1702,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3015D75-1C5B-4AD1-9C97-0CD088290370}">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1769,22 +1760,22 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>4</v>
@@ -1795,22 +1786,22 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>4</v>
@@ -1821,276 +1812,279 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>26</v>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>421</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>424</v>
-      </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>422</v>
+        <v>45</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>423</v>
+        <v>46</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>37</v>
+      <c r="I12" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>83</v>
@@ -2099,157 +2093,154 @@
         <v>84</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>260</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>94</v>
+        <v>386</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>95</v>
+        <v>385</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>96</v>
+        <v>384</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>97</v>
+        <v>387</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>389</v>
+        <v>237</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>388</v>
+        <v>237</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>387</v>
+        <v>237</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>390</v>
+        <v>237</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>240</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>256</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>242</v>
@@ -2261,15 +2252,15 @@
         <v>244</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>258</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -2278,157 +2269,157 @@
         <v>245</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>247</v>
+        <v>388</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>4</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>260</v>
+        <v>382</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>259</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>385</v>
+        <v>248</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>386</v>
+        <v>272</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>298</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>298</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>271</v>
@@ -2437,217 +2428,217 @@
         <v>345</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>348</v>
+        <v>267</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>4</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="F30" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>259</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>176</v>
+        <v>406</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>267</v>
+        <v>405</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>56</v>
+        <v>69</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>409</v>
+        <v>265</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>425</v>
+        <v>176</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>296</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>263</v>
+        <v>70</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="F35" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>297</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>412</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3</v>
+        <v>295</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>183</v>
+        <v>409</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>184</v>
+        <v>408</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>265</v>
+        <v>410</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>4</v>
@@ -2655,198 +2646,198 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>415</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>412</v>
+        <v>182</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>411</v>
+        <v>183</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>414</v>
+        <v>341</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>4</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>299</v>
+        <v>3</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>344</v>
-      </c>
       <c r="H38" s="3" t="s">
-        <v>300</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3</v>
+        <v>298</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>188</v>
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>189</v>
+        <v>21</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="H40" t="s">
         <v>34</v>
-      </c>
-      <c r="B40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>190</v>
+        <v>351</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>350</v>
-      </c>
       <c r="H41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>262</v>
+        <v>33</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>354</v>
+        <v>188</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>353</v>
+        <v>274</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>352</v>
+        <v>273</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="H42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>277</v>
+        <v>189</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>276</v>
+        <v>189</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="H43" t="s">
-        <v>37</v>
+        <v>189</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -2854,533 +2845,533 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" t="s">
-        <v>261</v>
+        <v>30</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>193</v>
+        <v>329</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>193</v>
+        <v>275</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+        <v>390</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="G50" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H50" t="s">
-        <v>21</v>
+        <v>69</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="H51" t="s">
-        <v>72</v>
+        <v>396</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D52" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="G52" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>421</v>
+        <v>397</v>
+      </c>
+      <c r="H52" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="H53" t="s">
-        <v>37</v>
+      <c r="H53" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>202</v>
+        <v>414</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>343</v>
+        <v>415</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>416</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>417</v>
+        <v>200</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>418</v>
+        <v>285</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>325</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>138</v>
+        <v>302</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>301</v>
+        <v>3</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>303</v>
+        <v>205</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>401</v>
+        <v>306</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>309</v>
       </c>
+      <c r="G64" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="H64" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>247</v>
+        <v>399</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>4</v>
@@ -3388,25 +3379,25 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>4</v>
@@ -3414,25 +3405,25 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>4</v>
@@ -3440,25 +3431,25 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>4</v>
@@ -3466,97 +3457,97 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>3</v>
+        <v>298</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>404</v>
+        <v>313</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>315</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>317</v>
-      </c>
       <c r="H71" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
@@ -3564,25 +3555,22 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>298</v>
+        <v>3</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>4</v>
@@ -3590,22 +3578,22 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>4</v>
@@ -3613,22 +3601,16 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>407</v>
+        <v>217</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>4</v>
@@ -3636,262 +3618,268 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="C76" t="s">
+        <v>48</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
+        <v>218</v>
+      </c>
+      <c r="H76" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C78" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H79" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C80" t="s">
-        <v>51</v>
+        <v>258</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H80" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>261</v>
+        <v>48</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="H81" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C82" t="s">
-        <v>51</v>
+        <v>259</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>226</v>
+        <v>374</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="H82" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D83" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>376</v>
       </c>
       <c r="H83" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C84" t="s">
-        <v>262</v>
+        <v>3</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>382</v>
+        <v>224</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>380</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H84" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C85" t="s">
-        <v>3</v>
+        <v>260</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>227</v>
+        <v>370</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="H85" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C86" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>373</v>
+        <v>225</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="H86" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B87" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E87" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>358</v>
-      </c>
       <c r="H87" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C88" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E88" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -3899,22 +3887,22 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C89" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>361</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -3922,22 +3910,22 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C90" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -3945,22 +3933,22 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C91" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -3968,74 +3956,51 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C92" t="s">
-        <v>261</v>
+        <v>70</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H92" t="s">
-        <v>4</v>
+        <v>69</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B93" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C93" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H93" t="s">
-        <v>72</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>171</v>
-      </c>
-      <c r="B94" t="s">
-        <v>42</v>
-      </c>
-      <c r="C94" t="s">
-        <v>263</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="H94" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
